--- a/test-files/adjacency-matrix-modifications/asymmetric-gene-order-input.xlsx
+++ b/test-files/adjacency-matrix-modifications/asymmetric-gene-order-input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="15180" windowHeight="10620" tabRatio="831" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="25440" windowHeight="13840" tabRatio="831" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,7 +183,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -201,6 +201,17 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -222,21 +233,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2336,7 +2368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
@@ -4374,8 +4406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4403,7 +4435,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
@@ -4412,19 +4444,19 @@
         <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
-        <v>25</v>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="O1" t="s">
-        <v>29</v>
+      <c r="O1" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="P1" t="s">
         <v>31</v>
@@ -4432,8 +4464,8 @@
       <c r="Q1" t="s">
         <v>33</v>
       </c>
-      <c r="R1" t="s">
-        <v>35</v>
+      <c r="R1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="S1" t="s">
         <v>37</v>
@@ -4442,7 +4474,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="V1" t="s">
         <v>43</v>
@@ -5877,6 +5909,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/test-files/adjacency-matrix-modifications/asymmetric-gene-order-input.xlsx
+++ b/test-files/adjacency-matrix-modifications/asymmetric-gene-order-input.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihir/Documents/School/GRNsight/test-files/adjacency-matrix-modifications/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="25440" windowHeight="13840" tabRatio="831" firstSheet="8" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="831" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +21,6 @@
     <sheet name="production_rates" sheetId="7" r:id="rId7"/>
     <sheet name="measurement_times" sheetId="8" r:id="rId8"/>
     <sheet name="network" sheetId="9" r:id="rId9"/>
-    <sheet name="network_weights" sheetId="10" r:id="rId10"/>
-    <sheet name="network_optimized_b" sheetId="11" r:id="rId11"/>
-    <sheet name="concentration_sigmas" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="48">
   <si>
     <t>SystematicName</t>
   </si>
@@ -174,9 +176,6 @@
   </si>
   <si>
     <t>rows genes affected/cols genes controlling</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
@@ -575,2186 +574,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U1" t="s">
-        <v>41</v>
-      </c>
-      <c r="V1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>3.5832424503284495</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.43639050107171085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.92252832272777818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>2.0910823308027027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.70302987263964267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>1.705484132961856</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>1.9790215778846847</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>0.60210848377180937</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>0.46995435034263766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>1.8752370569606065</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>0.39660977074993559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>-0.41004540733244454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>0.96462921382440314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>0.46922152532428346</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>2.0323815421584288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>0.88883637179023933</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>2.3366106137446918</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>15</v>
-      </c>
-      <c r="D1">
-        <v>30</v>
-      </c>
-      <c r="E1">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>0.91727409105065705</v>
-      </c>
-      <c r="D2">
-        <v>0.44210879486447602</v>
-      </c>
-      <c r="E2">
-        <v>0.69315515241602899</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0.71685637353245302</v>
-      </c>
-      <c r="D3">
-        <v>0.641384013885964</v>
-      </c>
-      <c r="E3">
-        <v>0.92245951116837099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0.44470247868505602</v>
-      </c>
-      <c r="D4">
-        <v>0.53164120946850402</v>
-      </c>
-      <c r="E4">
-        <v>0.320493749001932</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>0.81727687981679498</v>
-      </c>
-      <c r="D5">
-        <v>0.95726655288635398</v>
-      </c>
-      <c r="E5">
-        <v>0.70281582595053704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1.0967850406720701</v>
-      </c>
-      <c r="D6">
-        <v>0.52970920759899298</v>
-      </c>
-      <c r="E6">
-        <v>0.80891828959740097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.42580145197082703</v>
-      </c>
-      <c r="D7">
-        <v>0.63499396842678302</v>
-      </c>
-      <c r="E7">
-        <v>0.78157727034137603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>0.404638632823907</v>
-      </c>
-      <c r="D8">
-        <v>0.58989131883839296</v>
-      </c>
-      <c r="E8">
-        <v>0.60748498565234699</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.68943520086600596</v>
-      </c>
-      <c r="D9">
-        <v>1.8955428214225301</v>
-      </c>
-      <c r="E9">
-        <v>0.54723644512184799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0.97726406268218102</v>
-      </c>
-      <c r="D10">
-        <v>0.72420652572711597</v>
-      </c>
-      <c r="E10">
-        <v>1.09985790153451</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11">
-        <v>0.72504670083612599</v>
-      </c>
-      <c r="D11">
-        <v>0.20779307950352699</v>
-      </c>
-      <c r="E11">
-        <v>0.65825511050072905</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>0.51852196117730698</v>
-      </c>
-      <c r="D12">
-        <v>0.88709656674279203</v>
-      </c>
-      <c r="E12">
-        <v>0.248881921070051</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>1.6409513470958299</v>
-      </c>
-      <c r="D13">
-        <v>1.01226276719667</v>
-      </c>
-      <c r="E13">
-        <v>1.2436321609087699</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>0.56438763790471502</v>
-      </c>
-      <c r="D14">
-        <v>0.637046148638169</v>
-      </c>
-      <c r="E14">
-        <v>0.76246682595887705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>0.48729361226630702</v>
-      </c>
-      <c r="D15">
-        <v>0.460208681767377</v>
-      </c>
-      <c r="E15">
-        <v>0.389622153973187</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16">
-        <v>1.72099674768658</v>
-      </c>
-      <c r="D16">
-        <v>0.85831878781873805</v>
-      </c>
-      <c r="E16">
-        <v>0.44772738659776701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17">
-        <v>0.50452893050955805</v>
-      </c>
-      <c r="D17">
-        <v>0.75370009518917203</v>
-      </c>
-      <c r="E17">
-        <v>1.07122097617887</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>1.1966265259256601</v>
-      </c>
-      <c r="D18">
-        <v>1.1801382981458799</v>
-      </c>
-      <c r="E18">
-        <v>0.35000209622478101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19">
-        <v>1.48156426614991</v>
-      </c>
-      <c r="D19">
-        <v>1.7277862291131501</v>
-      </c>
-      <c r="E19">
-        <v>0.89902628670097295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20">
-        <v>1.10568541431009</v>
-      </c>
-      <c r="D20">
-        <v>0.84212726958299999</v>
-      </c>
-      <c r="E20">
-        <v>0.74688657635395606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>0.65898902973629203</v>
-      </c>
-      <c r="D21">
-        <v>0.43418451003840802</v>
-      </c>
-      <c r="E21">
-        <v>0.53794081650927705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22">
-        <v>0.40923963868872798</v>
-      </c>
-      <c r="D22">
-        <v>0.28048461336490499</v>
-      </c>
-      <c r="E22">
-        <v>0.287254982132019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2764,14 +586,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2781,14 +598,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2800,9 +612,9 @@
       <selection sqref="A1:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +631,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2836,7 +648,7 @@
         <v>-2.2843447109758301</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2853,7 +665,7 @@
         <v>-8.4072251269262696E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2870,7 +682,7 @@
         <v>0.29611171632314098</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2887,7 +699,7 @@
         <v>1.75845186354745</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -2904,7 +716,7 @@
         <v>-0.76236366760055096</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2921,7 +733,7 @@
         <v>0.62853290835895503</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -2938,7 +750,7 @@
         <v>-8.7143718210927298E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2955,7 +767,7 @@
         <v>0.84698244904192099</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -2972,7 +784,7 @@
         <v>-0.73218305564943398</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -2989,7 +801,7 @@
         <v>0.45176478094112998</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3006,7 +818,7 @@
         <v>-0.48116619434522001</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3023,7 +835,7 @@
         <v>1.4416179829439899</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3040,7 +852,7 @@
         <v>-0.29043031142040199</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3057,7 +869,7 @@
         <v>0.41039596022329999</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3074,7 +886,7 @@
         <v>9.0586658239791298E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3091,7 +903,7 @@
         <v>-0.19878651280399501</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3108,7 +920,7 @@
         <v>-1.1921015273515501</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3125,7 +937,7 @@
         <v>1.5309831587774501</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3142,7 +954,7 @@
         <v>1.4171295501935499</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3159,7 +971,7 @@
         <v>1.50806209670647</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3178,11 +990,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3194,9 +1001,9 @@
       <selection sqref="A1:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3225,7 +1032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3254,7 +1061,7 @@
         <v>-2.0801205398917544</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3283,7 +1090,7 @@
         <v>-7.5661817313969412E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3312,7 +1119,7 @@
         <v>0.33259896435719805</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3341,7 +1148,7 @@
         <v>1.453115800515161</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3370,7 +1177,7 @@
         <v>-0.96577513265119319</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3399,7 +1206,7 @@
         <v>0.4782773049276845</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3428,7 +1235,7 @@
         <v>-0.15602572213857252</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3457,7 +1264,7 @@
         <v>0.63280748470854853</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3486,7 +1293,7 @@
         <v>-1.1091270004312481</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3515,7 +1322,7 @@
         <v>0.53080304375720466</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3544,7 +1351,7 @@
         <v>-0.67170289728681509</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3573,7 +1380,7 @@
         <v>1.3835586736624141</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -3602,7 +1409,7 @@
         <v>-0.33564151951966104</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3631,7 +1438,7 @@
         <v>0.4559061818509218</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -3660,7 +1467,7 @@
         <v>-0.33676065652788667</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -3689,7 +1496,7 @@
         <v>-0.22864400253053718</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3718,7 +1525,7 @@
         <v>-1.1538461530770181</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -3747,7 +1554,7 @@
         <v>1.5459741716045703</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -3776,7 +1583,7 @@
         <v>1.4351838541611563</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -3805,7 +1612,7 @@
         <v>1.492430872944583</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3836,11 +1643,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3852,9 +1654,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3865,7 +1667,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3876,7 +1678,7 @@
         <v>0.34657359027997264</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3887,7 +1689,7 @@
         <v>0.23104906018664842</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -3898,7 +1700,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3909,7 +1711,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3920,7 +1722,7 @@
         <v>2.5672117798516494E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3931,7 +1733,7 @@
         <v>1.7328679513998631E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -3942,7 +1744,7 @@
         <v>1.1002336199364211E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3953,7 +1755,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3964,7 +1766,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -3975,7 +1777,7 @@
         <v>7.453195489891885E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -3986,7 +1788,7 @@
         <v>7.7016353395549478E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3997,7 +1799,7 @@
         <v>2.7179999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4008,7 +1810,7 @@
         <v>6.9314718055994526E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4019,7 +1821,7 @@
         <v>4.9510512897138946E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4030,7 +1832,7 @@
         <v>1.6503504299046318E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4041,7 +1843,7 @@
         <v>5.7762265046662105E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4052,7 +1854,7 @@
         <v>1.332975347230664E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4063,7 +1865,7 @@
         <v>1.2602676010180823E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4074,7 +1876,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4085,7 +1887,7 @@
         <v>3.0136833937388925E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4098,11 +1900,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4114,9 +1911,9 @@
       <selection sqref="A1:C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4127,7 +1924,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4138,7 +1935,7 @@
         <v>1.4647501152208167</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -4149,7 +1946,7 @@
         <v>0.61756754310209183</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -4160,7 +1957,7 @@
         <v>0.13213618203605254</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -4171,7 +1968,7 @@
         <v>0.17183551724098942</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -4182,7 +1979,7 @@
         <v>0.13857337954030421</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4193,7 +1990,7 @@
         <v>9.5573071327759274E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -4204,7 +2001,7 @@
         <v>1.733680952262396E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -4215,7 +2012,7 @@
         <v>0.63931909300407519</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -4226,7 +2023,7 @@
         <v>1.8101470219449828E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -4237,7 +2034,7 @@
         <v>0.48527141821372932</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -4248,7 +2045,7 @@
         <v>0.5895545931776961</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -4259,7 +2056,7 @@
         <v>0.32714212674574389</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -4270,7 +2067,7 @@
         <v>0.68230335258444386</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -4281,7 +2078,7 @@
         <v>0.2727248267444915</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -4292,7 +2089,7 @@
         <v>2.2073873696625564E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -4303,7 +2100,7 @@
         <v>8.2307397934961876E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -4314,7 +2111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -4325,7 +2122,7 @@
         <v>0.89143565346094111</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4336,7 +2133,7 @@
         <v>0.38930512637749964</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -4347,7 +2144,7 @@
         <v>0.79398782516712441</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4360,11 +2157,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4376,9 +2168,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>46</v>
       </c>
@@ -4394,11 +2186,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4407,12 +2194,12 @@
   <dimension ref="A1:V22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -4480,7 +2267,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4548,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -4616,7 +2403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -4684,7 +2471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4752,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4820,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -4888,7 +2675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -4956,7 +2743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -5024,7 +2811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -5092,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5160,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -5228,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5296,7 +3083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5364,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -5432,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -5500,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -5568,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -5636,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -5704,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -5772,7 +3559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5840,7 +3627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -5912,10 +3699,5 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/test-files/adjacency-matrix-modifications/asymmetric-gene-order-input.xlsx
+++ b/test-files/adjacency-matrix-modifications/asymmetric-gene-order-input.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25915"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
